--- a/tools_runtime_1104_in_paper.xlsx
+++ b/tools_runtime_1104_in_paper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/local_sens_hash/cpp_results/test_sw/runtime/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5CA142-5EF1-C044-BE09-3D5AD27F453F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB17943-7878-1B4C-A942-AA60B3D70E20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="3960" windowWidth="22640" windowHeight="11260" xr2:uid="{94413ECD-F245-5041-9601-54A38B16B59B}"/>
   </bookViews>
@@ -500,8 +500,8 @@
         <v>47.949633333333331</v>
       </c>
       <c r="D4" s="2">
-        <f>136933368/2^20</f>
-        <v>130.58983612060547</v>
+        <f>210043280/2^20</f>
+        <v>200.31288146972656</v>
       </c>
       <c r="E4">
         <v>24</v>
